--- a/Configuratie.xlsx
+++ b/Configuratie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigawater-my.sharepoint.com/personal/j_nienhuis_waterbedrijfgroningen_nl/Documents/Documenten/Projecten/PressurePredictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="8_{D5E7667C-8889-4CE2-8833-9A9CA647FB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6C5752-6F43-4E9B-82BF-70074BF6B8BA}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="14_{2F6E85C5-4D42-4AA0-8401-3FB9880E4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC102557-4A64-4022-AC9D-53D6F07BFC95}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CD9B2A0-ECB0-40CA-965D-71DA5C2F9D70}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CD9B2A0-ECB0-40CA-965D-71DA5C2F9D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertaling" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="178">
   <si>
     <t>\\PRD-SPH-002\PRD-SPH-002\AC800M\DAP-D-DrukIn</t>
   </si>
@@ -473,6 +473,108 @@
   </si>
   <si>
     <t>\\PRD-SPH-002\SRV-ABB-026\800xA\PSE-G-PMRD.Status.VolumeTot_UIT</t>
+  </si>
+  <si>
+    <t>P_Usquert_Uit</t>
+  </si>
+  <si>
+    <t>P_Oostwold_Uit</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DOO-D-PS.Status.ActDrukUIT.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\PRD-SPH-002\Schneider_1min\DUS-G-WR00-PIT02-PVGem</t>
+  </si>
+  <si>
+    <t>P_Eenrum_Uit</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\PRD-SPH-002\AC800M\DEE-D-WR02-PT02R</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-ABB-026\800xA\PSE-G-WR00-FT03R.Status.RM.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\PRD-SPH-002\Datawatt_gateway\MHG-1-FT01</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\PRD-SPH-002\Datawatt_gateway\MHG-1-PT01</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\PRD-SPH-002\Datawatt_gateway\MRA-1-FT01</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\PRD-SPH-002\Datawatt_gateway\MRA-1-PT01</t>
+  </si>
+  <si>
+    <t>P_Heiploeg</t>
+  </si>
+  <si>
+    <t>Heiploeg</t>
+  </si>
+  <si>
+    <t>Rixona</t>
+  </si>
+  <si>
+    <t>P_Rixona</t>
+  </si>
+  <si>
+    <t>TagNameShort</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DEE-D-WR01-FQIT01.Status.Actueel.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DEE-D-WR02-FQIT02.Status.Actueel.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DLA-D-WR00-FQIT01.Status.Actueel.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DLA-D-WR00-FQIT02.Status.Actueel.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DOO-D-WR01-FQIT01.Status.Actueel.Value</t>
+  </si>
+  <si>
+    <t>\\PRD-SPH-002\SRV-PLC-CS\800xA\DOO-D-WR02-FQIT02.Status.Actueel.Value</t>
+  </si>
+  <si>
+    <t>Eenrum_In</t>
+  </si>
+  <si>
+    <t>InterpolationMethod</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>OVV</t>
+  </si>
+  <si>
+    <t>ORU</t>
+  </si>
+  <si>
+    <t>ONO</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>PDP</t>
+  </si>
+  <si>
+    <t>MHG</t>
+  </si>
+  <si>
+    <t>MRA</t>
   </si>
 </sst>
 </file>
@@ -482,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +729,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -831,7 +939,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,6 +958,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Bad" xfId="1" xr:uid="{0834C309-F1B9-41A5-9B86-7BC1357E16E0}"/>
@@ -1186,1227 +1297,1971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7C7910-D583-4258-9DF3-4A7FA90A6AE7}">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:F30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="78.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="18" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5"/>
-    <col min="13" max="13" width="34" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="3" max="3" width="93.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="36.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.140625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="18" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="34" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>102</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>133</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(C3,"\",REPT(" ",100)),100))</f>
+        <v>DUS-G-WR00-PIT02-PVGem</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D58" si="0">TRIM(RIGHT(SUBSTITUTE(C4,"\",REPT(" ",100)),100))</f>
+        <v>DEE-D-WR02-PT02R</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>DOO-D-PS.Status.ActDrukUIT.Value</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>DUS-G-WR00-PIT01-PVGem</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3">
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6">
         <v>230</v>
       </c>
-      <c r="K3">
+      <c r="N6">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>DEE-D-WR01-PT01R</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" t="s">
         <v>61</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4">
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7">
         <v>260</v>
       </c>
-      <c r="K4">
+      <c r="N7">
         <v>280</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>DAP-D-WR00-PT04.Status.RM.Value</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" t="s">
         <v>61</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5">
-        <v>270</v>
-      </c>
-      <c r="K5">
-        <v>280</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6">
-        <v>270</v>
-      </c>
-      <c r="K6">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7">
-        <v>200</v>
-      </c>
-      <c r="K7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>117</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8">
+        <v>270</v>
+      </c>
+      <c r="N8">
+        <v>280</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>DAP-D-DrukIn</v>
       </c>
       <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" t="s">
         <v>61</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>117</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9">
+        <v>270</v>
+      </c>
+      <c r="N9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>IEE-1-WR00-PIT01R.Status.MW01.Value</v>
       </c>
       <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" t="s">
         <v>61</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10">
-        <v>340</v>
-      </c>
-      <c r="K10">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>PON-G-PMRD.Status.ActuelePersdruk</v>
       </c>
       <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" t="s">
         <v>61</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11">
-        <v>340</v>
-      </c>
-      <c r="K11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>OVV-D-PS.Status.ActDrukmeting2.Value</v>
       </c>
       <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" t="s">
         <v>61</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>117</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ORU-DS-WR01-RM02.Status.RM.Value</v>
       </c>
       <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13">
-        <v>220</v>
-      </c>
-      <c r="K13">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13">
+        <v>340</v>
+      </c>
+      <c r="N13">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ONO-G-WR01-PT01.PVGem</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" t="s">
         <v>61</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14" t="s">
-        <v>117</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14">
+        <v>340</v>
+      </c>
+      <c r="N14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ANN-1-PS.Status.ActPersdrukMussel.Value</v>
       </c>
       <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
         <v>61</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15" t="s">
-        <v>117</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>DLA-D-DrukIn</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16">
+        <v>220</v>
+      </c>
+      <c r="N16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>PDG-G-PMRD.Status.ActuelePersdruk</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>PNI-G-WR00-PT02R.Status.RM.Value</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>MAL-1-PT01</v>
+      </c>
+      <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
         <v>61</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16">
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19">
         <v>220</v>
       </c>
-      <c r="K16">
+      <c r="N19">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>MFD-1-PT01</v>
+      </c>
+      <c r="E20" t="s">
         <v>81</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
         <v>61</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17">
-        <v>220</v>
-      </c>
-      <c r="K17">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18">
-        <v>220</v>
-      </c>
-      <c r="K18">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19">
-        <v>220</v>
-      </c>
-      <c r="K19">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20">
+        <v>220</v>
+      </c>
+      <c r="N20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>MSF-1-PT01</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21">
+        <v>220</v>
+      </c>
+      <c r="N21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>MPC-1-PT01</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22">
+        <v>220</v>
+      </c>
+      <c r="N22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>DUS-G-WR00-FT01.PVGem</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>DUS-G-WR00-FT02.PVGem</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>DEE-D-WR01-FQIT01.Status.Actueel.Value</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>DEE-D-WR02-FQIT02.Status.Actueel.Value</v>
+      </c>
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="H23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>DLA-D-WR00-FQIT01.Status.Actueel.Value</v>
+      </c>
+      <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="I24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>DLA-D-WR00-FQIT02.Status.Actueel.Value</v>
+      </c>
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F28" t="s">
         <v>108</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" t="s">
         <v>118</v>
       </c>
-      <c r="I25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="L28" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>DTA-G-WR00-FT01.PVGem</v>
+      </c>
+      <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F29" t="s">
         <v>115</v>
       </c>
-      <c r="I26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>DTA-G-WR00-FT02.PVGem</v>
+      </c>
+      <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F30" t="s">
         <v>115</v>
       </c>
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>DAP-D-ActVolumeStroomIn</v>
+      </c>
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F31" t="s">
         <v>105</v>
       </c>
-      <c r="I28" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>DAP-D-ActVolumeStroomUit</v>
+      </c>
+      <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F32" t="s">
         <v>105</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" t="s">
         <v>119</v>
       </c>
-      <c r="I29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="L32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>PSE-G-WR00-FT03R.Status.RM.Value</v>
+      </c>
+      <c r="E33" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>IEE-1-WR00-FQIT01R.Status.MW01.Value</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>PNI-G-PMRD.Status.WR00_FQIT03.Value</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>PNI-G-PMRD.Status.WR00_FQIT01.Value</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>PNI-G-PMRD.Status.WR00_FQIT04.Value</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>PDG-G-PMRD.Status.ActueleVolumestroom</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>PON-G-PMRD.Status.ActueleVolumestroom</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>ANN-1-PS.Status.ActVolNaarWBG.Value</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s">
+        <v>117</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>ORU-DS-WR01-PROV-F</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>ORU-DS-WR01-STAD-F</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>MAL-1-FT01</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>MFD-1-FT01</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>MSF-1-FT01</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>MPC-1-FT01</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>DOO-D-WR02-FQIT02.Status.Actueel.Value</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>DOO-D-WR01-FQIT01.Status.Actueel.Value</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L48" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>PDP-O-PT00-FQT01.Status.GebruikActueel.Value</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>PDP-G-PT00-FQT01.Status.GebruikActueel.Value</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>PDP-G-WR99-FQT01.Status.GebruikActueel.Value</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M51"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>DTA-G-RR00-VoorResProc</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>DEE-D-VOORRAAD</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" t="s">
-        <v>117</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I32" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" t="s">
-        <v>117</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" t="s">
-        <v>117</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" t="s">
-        <v>117</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" t="s">
-        <v>117</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" t="s">
-        <v>117</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" t="s">
-        <v>117</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>OVV-D-WR01-FIT01R.Status.RM.Value</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="F54" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>MHG-1-FT01</v>
+      </c>
+      <c r="E55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55">
+        <v>220</v>
+      </c>
+      <c r="N55">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(C56,"\",REPT(" ",100)),100))</f>
+        <v>MHG-1-PT01</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56" t="s">
+        <v>117</v>
+      </c>
+      <c r="M56">
+        <v>220</v>
+      </c>
+      <c r="N56">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>MRA-1-FT01</v>
+      </c>
+      <c r="E57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57" t="s">
+        <v>117</v>
+      </c>
+      <c r="M57">
+        <v>220</v>
+      </c>
+      <c r="N57">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>MRA-1-PT01</v>
+      </c>
+      <c r="E58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58" t="s">
+        <v>117</v>
+      </c>
+      <c r="M58">
+        <v>220</v>
+      </c>
+      <c r="N58">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C64"/>
+      <c r="D64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2415,7 +3270,7 @@
   <dimension ref="A2:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="A30:D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,7 +4514,7 @@
   <dimension ref="C2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
